--- a/3.项目规划/庞露/项目预算文件.xlsx
+++ b/3.项目规划/庞露/项目预算文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDBFEBF-C099-4E97-BC37-AE04749BE534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87344B1A-2A97-45A6-A472-BC71D0ACD225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1"/>
+    <workbookView xWindow="3460" yWindow="2650" windowWidth="19200" windowHeight="11170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图表1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" sourceFile="D:\Documents and Settings\PKMACCT\My Documents\Task Usage.cub" keepAlive="1" name="Task Usage" type="5" refreshedVersion="8">
     <dbPr connection="Provider=MSOLAP.2;Persist Security Info=True;Data Source=D:\Documents and Settings\PKMACCT\My Documents\Task Usage.cub;Client Cache Size=25;Auto Synch Period=10000" command="ProjectReport" commandType="1"/>
-    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\27745\AppData\Local\Temp\VisualReportsTemporaryData\{b9591650-179f-ee11-9f2b-f46add81423c}\TaskTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
+    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\27745\AppData\Local\Temp\VisualReportsTemporaryData\{7ee1bdf6-71a5-ee11-9f2b-f46add81423c}\TaskTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
   </connection>
 </connections>
 </file>
@@ -127,7 +127,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,7 +406,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>171060</c:v>
+                  <c:v>170580</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -417,7 +416,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A75A-4571-ADA2-5756FB656B66}"/>
+              <c16:uniqueId val="{00000000-415E-489F-9F88-E73D6AFD8751}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -430,7 +429,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564741599"/>
+        <c:axId val="111598575"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -485,7 +484,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>171060</c:v>
+                  <c:v>170580</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9240</c:v>
@@ -496,7 +495,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A75A-4571-ADA2-5756FB656B66}"/>
+              <c16:uniqueId val="{00000001-415E-489F-9F88-E73D6AFD8751}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -514,7 +513,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="564741599"/>
+        <c:axId val="111598575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +602,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564741599"/>
+        <c:crossAx val="111598575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,7 +760,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA2B15E-FD31-7FF8-9FE7-00BF7AFDCB60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE42C8E4-AB02-59CA-FAC5-56D2250426ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +784,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rui yu" refreshedDate="45280.714151851855" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rui yu" refreshedDate="45288.800309143517" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="50">
     <cacheField name="[时间].[周历].[年度]" caption="年度" numFmtId="0" hierarchy="1" level="1">
@@ -1054,7 +1053,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="50">
     <pivotField name="年度" axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" dataSourceSort="1">
@@ -1662,10 +1661,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="6">
-        <v>171060</v>
+        <v>170580</v>
       </c>
       <c r="D5" s="7">
-        <v>171060</v>
+        <v>170580</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,10 +1673,10 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6">
-        <v>171060</v>
+        <v>170580</v>
       </c>
       <c r="D6" s="7">
-        <v>171060</v>
+        <v>170580</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,10 +1711,10 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10">
-        <v>171060</v>
+        <v>170580</v>
       </c>
       <c r="D9" s="11">
-        <v>171060</v>
+        <v>170580</v>
       </c>
     </row>
   </sheetData>
